--- a/wechat/daily/daily_check/account.xlsx
+++ b/wechat/daily/daily_check/account.xlsx
@@ -16,22 +16,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6">
   <si>
-    <t>bjnews_xjb</t>
+    <t>wuxiaobopd</t>
   </si>
   <si>
     <t>查询结果</t>
   </si>
   <si>
-    <t xml:space="preserve"> iwzsee</t>
+    <t>wallstreetcn</t>
   </si>
   <si>
-    <t>beisongshijiao</t>
+    <t>cctvnewscenter</t>
   </si>
   <si>
-    <t>hbjs_87311111</t>
+    <t>xinhuashefabu1</t>
   </si>
   <si>
-    <t>jiyaomishu007</t>
+    <t>a045166383</t>
   </si>
 </sst>
 </file>
@@ -39,10 +39,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -53,18 +53,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -84,29 +85,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -128,6 +151,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -136,62 +190,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,187 +206,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,6 +397,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -415,22 +448,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -438,8 +466,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -459,41 +487,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -505,10 +505,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -517,133 +517,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/wechat/daily/daily_check/account.xlsx
+++ b/wechat/daily/daily_check/account.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23175" windowHeight="11235"/>
+    <workbookView windowWidth="24135" windowHeight="14070"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,22 +16,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6">
   <si>
-    <t>wuxiaobopd</t>
+    <t> sinacaijing</t>
   </si>
   <si>
     <t>查询结果</t>
   </si>
   <si>
-    <t>wallstreetcn</t>
+    <t>jinrongcainiaozhai</t>
   </si>
   <si>
-    <t>cctvnewscenter</t>
+    <t>chinafundnews</t>
   </si>
   <si>
-    <t>xinhuashefabu1</t>
+    <t>itouzi8</t>
   </si>
   <si>
-    <t>a045166383</t>
+    <t>timeweekly</t>
   </si>
 </sst>
 </file>
@@ -39,10 +39,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -50,6 +50,127 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -61,137 +182,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,187 +206,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,16 +404,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -433,6 +454,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -447,56 +497,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -505,10 +505,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -517,133 +517,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/wechat/daily/daily_check/account.xlsx
+++ b/wechat/daily/daily_check/account.xlsx
@@ -16,22 +16,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6">
   <si>
-    <t> sinacaijing</t>
+    <t>hqsbwx</t>
   </si>
   <si>
     <t>查询结果</t>
   </si>
   <si>
-    <t>jinrongcainiaozhai</t>
+    <t>gd_xkb</t>
   </si>
   <si>
-    <t>chinafundnews</t>
+    <t>cbxw110</t>
   </si>
   <si>
-    <t>itouzi8</t>
+    <t>xjb-jingshier</t>
   </si>
   <si>
-    <t>timeweekly</t>
+    <t>tjrbwx</t>
   </si>
 </sst>
 </file>
@@ -40,9 +40,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -61,76 +61,68 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -142,8 +134,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -151,16 +175,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -169,29 +192,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,187 +206,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,7 +404,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -424,17 +439,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -457,8 +481,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -473,30 +497,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -505,10 +505,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -517,133 +517,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/wechat/daily/daily_check/account.xlsx
+++ b/wechat/daily/daily_check/account.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24135" windowHeight="14070"/>
+    <workbookView windowWidth="28695" windowHeight="13650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,22 +16,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6">
   <si>
-    <t>hqsbwx</t>
+    <t>youth-daily</t>
   </si>
   <si>
     <t>查询结果</t>
   </si>
   <si>
-    <t>gd_xkb</t>
+    <t>weixinweibo666</t>
   </si>
   <si>
-    <t>cbxw110</t>
+    <t> jinguliangyan</t>
   </si>
   <si>
-    <t>xjb-jingshier</t>
+    <t>cnhubeigw</t>
   </si>
   <si>
-    <t>tjrbwx</t>
+    <t>sxwbttxs</t>
   </si>
 </sst>
 </file>
@@ -39,10 +39,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -50,27 +50,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -82,8 +61,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -91,6 +79,97 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -105,7 +184,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -113,85 +192,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,187 +206,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,17 +409,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -463,26 +463,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -505,10 +505,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -517,133 +517,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/wechat/daily/daily_check/account.xlsx
+++ b/wechat/daily/daily_check/account.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13650"/>
+    <workbookView windowWidth="28695" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,22 +16,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6">
   <si>
-    <t>youth-daily</t>
+    <t>gmw_001</t>
   </si>
   <si>
     <t>查询结果</t>
   </si>
   <si>
-    <t>weixinweibo666</t>
+    <t>cctvnewscenter</t>
   </si>
   <si>
-    <t> jinguliangyan</t>
+    <t>zhengfu</t>
   </si>
   <si>
-    <t>cnhubeigw</t>
+    <t>rmwhlj</t>
   </si>
   <si>
-    <t>sxwbttxs</t>
+    <t>peoplefujian</t>
   </si>
 </sst>
 </file>
@@ -53,6 +53,95 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -61,137 +150,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,187 +206,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,17 +409,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -442,8 +442,28 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -463,37 +483,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -505,10 +505,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -517,133 +517,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -973,7 +973,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:A5"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>

--- a/wechat/daily/daily_check/account.xlsx
+++ b/wechat/daily/daily_check/account.xlsx
@@ -16,22 +16,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6">
   <si>
-    <t>gmw_001</t>
+    <t>xianhua-3 </t>
   </si>
   <si>
     <t>查询结果</t>
   </si>
   <si>
-    <t>cctvnewscenter</t>
+    <t>xsga110</t>
   </si>
   <si>
-    <t>zhengfu</t>
+    <t>xszcwx</t>
   </si>
   <si>
-    <t>rmwhlj</t>
+    <t>xsgbdst</t>
   </si>
   <si>
-    <t>peoplefujian</t>
+    <t>xsnetcn</t>
   </si>
 </sst>
 </file>
@@ -54,6 +54,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -61,14 +68,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -83,21 +98,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -105,6 +114,37 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -119,39 +159,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -159,39 +177,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,187 +206,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,6 +397,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -424,26 +439,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -453,17 +455,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -497,6 +488,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -505,10 +505,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -517,133 +517,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -973,7 +973,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>

--- a/wechat/daily/daily_check/account.xlsx
+++ b/wechat/daily/daily_check/account.xlsx
@@ -31,7 +31,7 @@
     <t>xsgbdst</t>
   </si>
   <si>
-    <t>xsnetcn</t>
+    <t> xsnetcn</t>
   </si>
 </sst>
 </file>
@@ -39,10 +39,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -60,6 +60,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -67,8 +75,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -81,9 +97,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -97,24 +127,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -122,29 +137,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -159,6 +151,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -167,31 +190,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,187 +206,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,6 +397,26 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -415,11 +435,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -435,17 +461,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -474,21 +489,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -505,145 +505,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -973,7 +973,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A1" sqref="A1:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>

--- a/wechat/daily/daily_check/account.xlsx
+++ b/wechat/daily/daily_check/account.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12630"/>
+    <workbookView windowWidth="24135" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,22 +16,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6">
   <si>
-    <t>xianhua-3 </t>
+    <t>NBTV2ningbolaifa</t>
   </si>
   <si>
     <t>查询结果</t>
   </si>
   <si>
-    <t>xsga110</t>
+    <t>ningbowangjing</t>
   </si>
   <si>
-    <t>xszcwx</t>
+    <t>nbtv967890</t>
   </si>
   <si>
-    <t>xsgbdst</t>
+    <t>yztvnews</t>
   </si>
   <si>
-    <t> xsnetcn</t>
+    <t>lc-fjii_com</t>
   </si>
 </sst>
 </file>
@@ -39,8 +39,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -53,6 +53,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -61,17 +83,64 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -83,29 +152,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -113,85 +176,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,31 +206,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -242,151 +320,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,13 +400,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -435,36 +439,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -489,6 +463,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -497,6 +486,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -505,10 +505,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -517,133 +517,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/wechat/daily/daily_check/account.xlsx
+++ b/wechat/daily/daily_check/account.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24135" windowHeight="12600"/>
+    <workbookView windowWidth="24135" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,22 +16,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6">
   <si>
-    <t>NBTV2ningbolaifa</t>
+    <t>szdailyss</t>
   </si>
   <si>
     <t>查询结果</t>
   </si>
   <si>
-    <t>ningbowangjing</t>
+    <t>thepapernews</t>
   </si>
   <si>
-    <t>nbtv967890</t>
+    <t>cxfzfb</t>
   </si>
   <si>
-    <t>yztvnews</t>
+    <t>jjbd21</t>
   </si>
   <si>
-    <t>lc-fjii_com</t>
+    <t>CNS1952</t>
   </si>
 </sst>
 </file>
@@ -39,9 +39,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -53,8 +53,113 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -62,23 +167,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -89,113 +196,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -206,187 +206,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,26 +400,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -442,6 +444,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -449,16 +460,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -481,18 +492,7 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -505,10 +505,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -517,133 +517,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/wechat/daily/daily_check/account.xlsx
+++ b/wechat/daily/daily_check/account.xlsx
@@ -16,22 +16,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6">
   <si>
-    <t>szdailyss</t>
+    <t>xinlang-xinwen</t>
   </si>
   <si>
     <t>查询结果</t>
   </si>
   <si>
-    <t>thepapernews</t>
+    <t>zhanhao668</t>
   </si>
   <si>
-    <t>cxfzfb</t>
+    <t>xjb-pl</t>
   </si>
   <si>
-    <t>jjbd21</t>
+    <t>xiake_island</t>
   </si>
   <si>
-    <t>CNS1952</t>
+    <t>southernweekly</t>
   </si>
 </sst>
 </file>
@@ -39,10 +39,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -62,6 +62,28 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -76,6 +98,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -91,13 +121,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -106,8 +129,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -121,8 +152,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -137,9 +169,24 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -147,53 +194,6 @@
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -206,79 +206,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -290,103 +386,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,80 +397,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -497,6 +423,80 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -505,10 +505,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -517,10 +517,10 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -529,121 +529,121 @@
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -973,7 +973,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:A5"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>

--- a/wechat/daily/daily_check/account.xlsx
+++ b/wechat/daily/daily_check/account.xlsx
@@ -16,22 +16,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6">
   <si>
-    <t>xinlang-xinwen</t>
+    <t>hepannews </t>
   </si>
   <si>
     <t>查询结果</t>
   </si>
   <si>
-    <t>zhanhao668</t>
+    <t>csrm111</t>
   </si>
   <si>
-    <t>xjb-pl</t>
+    <t> cscstv</t>
   </si>
   <si>
-    <t>xiake_island</t>
+    <t>csbolan</t>
   </si>
   <si>
-    <t>southernweekly</t>
+    <t>hbcs99</t>
   </si>
 </sst>
 </file>
@@ -40,9 +40,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -60,9 +60,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -83,52 +135,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -145,6 +151,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -161,37 +175,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,181 +206,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,6 +397,47 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -420,21 +461,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -471,32 +497,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -505,10 +505,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -517,133 +517,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -973,7 +973,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" sqref="A1:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
